--- a/final/break-even.xlsx
+++ b/final/break-even.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\课程文档\软件项目管理\project\SoftwareManagementDocument\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C3871C-D1B9-463D-9B07-46735C157691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A923FF82-66EC-4F54-921F-9E57F7F12F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{6769B6BE-070D-4287-A46F-D9869B7CC5CF}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -197,6 +194,9 @@
     </xf>
     <xf numFmtId="178" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -328,7 +328,7 @@
                   <c:v>-173.95000000000073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1443.55</c:v>
+                  <c:v>1698.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,7 +616,7 @@
                   <c:v>10399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2682</c:v>
+                  <c:v>2937.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2023,9 +2023,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>944880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2353,7 +2353,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2365,118 +2365,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>166384</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>166384</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>166384</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>5731.39</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>10399</v>
       </c>
-      <c r="D4" s="6">
-        <v>2682</v>
+      <c r="D4" s="5">
+        <v>2937.04</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>20921.41</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>10572.95</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1238.45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>B4-B5</f>
         <v>-15190.02</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f t="shared" ref="C6:D6" si="0">C4-C5</f>
         <v>-173.95000000000073</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>1443.55</v>
+        <v>1698.59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f>B6/B4</f>
         <v>-2.6503204283777584</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f t="shared" ref="C7:D7" si="1">C6/C4</f>
         <v>-1.6727569958649942E-2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="1"/>
-        <v>0.53823639075316931</v>
+        <v>0.57833396889385225</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <f>B3/B6</f>
         <v>-10.953507631984685</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f t="shared" ref="C8:D8" si="2">C3/C6</f>
         <v>-956.50474274216333</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" si="2"/>
-        <v>115.26029579855218</v>
+        <v>97.954185530351651</v>
       </c>
     </row>
   </sheetData>
